--- a/test/tests/concrete_ASR_swelling/analysis/containment_str/PointRebarCoordinates.xlsx
+++ b/test/tests/concrete_ASR_swelling/analysis/containment_str/PointRebarCoordinates.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amitjain/projects/blackbear/test/tests/concrete_ASR_swelling/analysis/containment_str/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B26B9924-1D79-F644-B3A2-9EE5C8D695E1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53877B94-D895-E444-8A1E-D0A63F169B5D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6360" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{AD4819C1-5559-4D49-B033-773946CAECFE}"/>
+    <workbookView xWindow="760" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{AD4819C1-5559-4D49-B033-773946CAECFE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -380,170 +380,126 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91E36304-DBE4-A347-9BA5-888A187DF723}">
-  <dimension ref="A1:J55"/>
+  <dimension ref="A2:J56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1">
-        <v>20.372199999999999</v>
-      </c>
-      <c r="B1">
-        <v>3.1472000000000002</v>
-      </c>
-      <c r="C1">
-        <v>20.397200000000002</v>
-      </c>
-      <c r="D1">
-        <v>3.1472000000000002</v>
-      </c>
-      <c r="E1">
-        <v>21.072800000000001</v>
-      </c>
-      <c r="F1">
-        <v>3.1472000000000002</v>
-      </c>
-      <c r="G1">
-        <v>21.1236</v>
-      </c>
-      <c r="H1">
-        <v>3.1472000000000002</v>
-      </c>
-      <c r="I1">
-        <v>21.250599999999999</v>
-      </c>
-      <c r="J1">
-        <v>3.1472000000000002</v>
-      </c>
-    </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
-        <f>A1</f>
         <v>20.372199999999999</v>
       </c>
       <c r="B2">
-        <f>B1+0.114*6</f>
-        <v>3.8312000000000004</v>
+        <v>3.1472000000000002</v>
       </c>
       <c r="C2">
-        <f>C1</f>
         <v>20.397200000000002</v>
       </c>
       <c r="D2">
-        <f>D1+0.114*6</f>
-        <v>3.8312000000000004</v>
+        <v>3.1472000000000002</v>
       </c>
       <c r="E2">
-        <f>E1</f>
         <v>21.072800000000001</v>
       </c>
       <c r="F2">
-        <f>F1+0.114*6</f>
-        <v>3.8312000000000004</v>
+        <v>3.1472000000000002</v>
       </c>
       <c r="G2">
-        <f>G1</f>
         <v>21.1236</v>
       </c>
       <c r="H2">
-        <f>H1+0.114*6</f>
-        <v>3.8312000000000004</v>
+        <v>3.1472000000000002</v>
       </c>
       <c r="I2">
-        <f>I1</f>
         <v>21.250599999999999</v>
       </c>
       <c r="J2">
-        <f>J1+0.114*6</f>
-        <v>3.8312000000000004</v>
+        <v>3.1472000000000002</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
-        <f t="shared" ref="A3:A55" si="0">A2</f>
+        <f>A2</f>
         <v>20.372199999999999</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B55" si="1">B2+0.114*6</f>
-        <v>4.5152000000000001</v>
+        <f>B2+0.114*6</f>
+        <v>3.8312000000000004</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C55" si="2">C2</f>
+        <f>C2</f>
         <v>20.397200000000002</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D55" si="3">D2+0.114*6</f>
-        <v>4.5152000000000001</v>
+        <f>D2+0.114*6</f>
+        <v>3.8312000000000004</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E55" si="4">E2</f>
+        <f>E2</f>
         <v>21.072800000000001</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F55" si="5">F2+0.114*6</f>
-        <v>4.5152000000000001</v>
+        <f>F2+0.114*6</f>
+        <v>3.8312000000000004</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G55" si="6">G2</f>
+        <f>G2</f>
         <v>21.1236</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H55" si="7">H2+0.114*6</f>
-        <v>4.5152000000000001</v>
+        <f>H2+0.114*6</f>
+        <v>3.8312000000000004</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I55" si="8">I2</f>
+        <f>I2</f>
         <v>21.250599999999999</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J55" si="9">J2+0.114*6</f>
-        <v>4.5152000000000001</v>
+        <f>J2+0.114*6</f>
+        <v>3.8312000000000004</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="A4:A56" si="0">A3</f>
         <v>20.372199999999999</v>
       </c>
       <c r="B4">
-        <f t="shared" si="1"/>
-        <v>5.1992000000000003</v>
+        <f t="shared" ref="B4:B56" si="1">B3+0.114*6</f>
+        <v>4.5152000000000001</v>
       </c>
       <c r="C4">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="C4:C56" si="2">C3</f>
         <v>20.397200000000002</v>
       </c>
       <c r="D4">
-        <f t="shared" si="3"/>
-        <v>5.1992000000000003</v>
+        <f t="shared" ref="D4:D56" si="3">D3+0.114*6</f>
+        <v>4.5152000000000001</v>
       </c>
       <c r="E4">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="E4:E56" si="4">E3</f>
         <v>21.072800000000001</v>
       </c>
       <c r="F4">
-        <f t="shared" si="5"/>
-        <v>5.1992000000000003</v>
+        <f t="shared" ref="F4:F56" si="5">F3+0.114*6</f>
+        <v>4.5152000000000001</v>
       </c>
       <c r="G4">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="G4:G56" si="6">G3</f>
         <v>21.1236</v>
       </c>
       <c r="H4">
-        <f t="shared" si="7"/>
-        <v>5.1992000000000003</v>
+        <f t="shared" ref="H4:H56" si="7">H3+0.114*6</f>
+        <v>4.5152000000000001</v>
       </c>
       <c r="I4">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="I4:I56" si="8">I3</f>
         <v>21.250599999999999</v>
       </c>
       <c r="J4">
-        <f t="shared" si="9"/>
-        <v>5.1992000000000003</v>
+        <f t="shared" ref="J4:J56" si="9">J3+0.114*6</f>
+        <v>4.5152000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -553,7 +509,7 @@
       </c>
       <c r="B5">
         <f t="shared" si="1"/>
-        <v>5.8832000000000004</v>
+        <v>5.1992000000000003</v>
       </c>
       <c r="C5">
         <f t="shared" si="2"/>
@@ -561,7 +517,7 @@
       </c>
       <c r="D5">
         <f t="shared" si="3"/>
-        <v>5.8832000000000004</v>
+        <v>5.1992000000000003</v>
       </c>
       <c r="E5">
         <f t="shared" si="4"/>
@@ -569,7 +525,7 @@
       </c>
       <c r="F5">
         <f t="shared" si="5"/>
-        <v>5.8832000000000004</v>
+        <v>5.1992000000000003</v>
       </c>
       <c r="G5">
         <f t="shared" si="6"/>
@@ -577,7 +533,7 @@
       </c>
       <c r="H5">
         <f t="shared" si="7"/>
-        <v>5.8832000000000004</v>
+        <v>5.1992000000000003</v>
       </c>
       <c r="I5">
         <f t="shared" si="8"/>
@@ -585,7 +541,7 @@
       </c>
       <c r="J5">
         <f t="shared" si="9"/>
-        <v>5.8832000000000004</v>
+        <v>5.1992000000000003</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -595,7 +551,7 @@
       </c>
       <c r="B6">
         <f t="shared" si="1"/>
-        <v>6.5672000000000006</v>
+        <v>5.8832000000000004</v>
       </c>
       <c r="C6">
         <f t="shared" si="2"/>
@@ -603,7 +559,7 @@
       </c>
       <c r="D6">
         <f t="shared" si="3"/>
-        <v>6.5672000000000006</v>
+        <v>5.8832000000000004</v>
       </c>
       <c r="E6">
         <f t="shared" si="4"/>
@@ -611,7 +567,7 @@
       </c>
       <c r="F6">
         <f t="shared" si="5"/>
-        <v>6.5672000000000006</v>
+        <v>5.8832000000000004</v>
       </c>
       <c r="G6">
         <f t="shared" si="6"/>
@@ -619,7 +575,7 @@
       </c>
       <c r="H6">
         <f t="shared" si="7"/>
-        <v>6.5672000000000006</v>
+        <v>5.8832000000000004</v>
       </c>
       <c r="I6">
         <f t="shared" si="8"/>
@@ -627,7 +583,7 @@
       </c>
       <c r="J6">
         <f t="shared" si="9"/>
-        <v>6.5672000000000006</v>
+        <v>5.8832000000000004</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -637,7 +593,7 @@
       </c>
       <c r="B7">
         <f t="shared" si="1"/>
-        <v>7.2512000000000008</v>
+        <v>6.5672000000000006</v>
       </c>
       <c r="C7">
         <f t="shared" si="2"/>
@@ -645,7 +601,7 @@
       </c>
       <c r="D7">
         <f t="shared" si="3"/>
-        <v>7.2512000000000008</v>
+        <v>6.5672000000000006</v>
       </c>
       <c r="E7">
         <f t="shared" si="4"/>
@@ -653,7 +609,7 @@
       </c>
       <c r="F7">
         <f t="shared" si="5"/>
-        <v>7.2512000000000008</v>
+        <v>6.5672000000000006</v>
       </c>
       <c r="G7">
         <f t="shared" si="6"/>
@@ -661,7 +617,7 @@
       </c>
       <c r="H7">
         <f t="shared" si="7"/>
-        <v>7.2512000000000008</v>
+        <v>6.5672000000000006</v>
       </c>
       <c r="I7">
         <f t="shared" si="8"/>
@@ -669,7 +625,7 @@
       </c>
       <c r="J7">
         <f t="shared" si="9"/>
-        <v>7.2512000000000008</v>
+        <v>6.5672000000000006</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -679,7 +635,7 @@
       </c>
       <c r="B8">
         <f t="shared" si="1"/>
-        <v>7.9352000000000009</v>
+        <v>7.2512000000000008</v>
       </c>
       <c r="C8">
         <f t="shared" si="2"/>
@@ -687,7 +643,7 @@
       </c>
       <c r="D8">
         <f t="shared" si="3"/>
-        <v>7.9352000000000009</v>
+        <v>7.2512000000000008</v>
       </c>
       <c r="E8">
         <f t="shared" si="4"/>
@@ -695,7 +651,7 @@
       </c>
       <c r="F8">
         <f t="shared" si="5"/>
-        <v>7.9352000000000009</v>
+        <v>7.2512000000000008</v>
       </c>
       <c r="G8">
         <f t="shared" si="6"/>
@@ -703,7 +659,7 @@
       </c>
       <c r="H8">
         <f t="shared" si="7"/>
-        <v>7.9352000000000009</v>
+        <v>7.2512000000000008</v>
       </c>
       <c r="I8">
         <f t="shared" si="8"/>
@@ -711,7 +667,7 @@
       </c>
       <c r="J8">
         <f t="shared" si="9"/>
-        <v>7.9352000000000009</v>
+        <v>7.2512000000000008</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -721,7 +677,7 @@
       </c>
       <c r="B9">
         <f t="shared" si="1"/>
-        <v>8.6192000000000011</v>
+        <v>7.9352000000000009</v>
       </c>
       <c r="C9">
         <f t="shared" si="2"/>
@@ -729,7 +685,7 @@
       </c>
       <c r="D9">
         <f t="shared" si="3"/>
-        <v>8.6192000000000011</v>
+        <v>7.9352000000000009</v>
       </c>
       <c r="E9">
         <f t="shared" si="4"/>
@@ -737,7 +693,7 @@
       </c>
       <c r="F9">
         <f t="shared" si="5"/>
-        <v>8.6192000000000011</v>
+        <v>7.9352000000000009</v>
       </c>
       <c r="G9">
         <f t="shared" si="6"/>
@@ -745,7 +701,7 @@
       </c>
       <c r="H9">
         <f t="shared" si="7"/>
-        <v>8.6192000000000011</v>
+        <v>7.9352000000000009</v>
       </c>
       <c r="I9">
         <f t="shared" si="8"/>
@@ -753,7 +709,7 @@
       </c>
       <c r="J9">
         <f t="shared" si="9"/>
-        <v>8.6192000000000011</v>
+        <v>7.9352000000000009</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -763,7 +719,7 @@
       </c>
       <c r="B10">
         <f t="shared" si="1"/>
-        <v>9.3032000000000004</v>
+        <v>8.6192000000000011</v>
       </c>
       <c r="C10">
         <f t="shared" si="2"/>
@@ -771,7 +727,7 @@
       </c>
       <c r="D10">
         <f t="shared" si="3"/>
-        <v>9.3032000000000004</v>
+        <v>8.6192000000000011</v>
       </c>
       <c r="E10">
         <f t="shared" si="4"/>
@@ -779,7 +735,7 @@
       </c>
       <c r="F10">
         <f t="shared" si="5"/>
-        <v>9.3032000000000004</v>
+        <v>8.6192000000000011</v>
       </c>
       <c r="G10">
         <f t="shared" si="6"/>
@@ -787,7 +743,7 @@
       </c>
       <c r="H10">
         <f t="shared" si="7"/>
-        <v>9.3032000000000004</v>
+        <v>8.6192000000000011</v>
       </c>
       <c r="I10">
         <f t="shared" si="8"/>
@@ -795,7 +751,7 @@
       </c>
       <c r="J10">
         <f t="shared" si="9"/>
-        <v>9.3032000000000004</v>
+        <v>8.6192000000000011</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -805,7 +761,7 @@
       </c>
       <c r="B11">
         <f t="shared" si="1"/>
-        <v>9.9871999999999996</v>
+        <v>9.3032000000000004</v>
       </c>
       <c r="C11">
         <f t="shared" si="2"/>
@@ -813,7 +769,7 @@
       </c>
       <c r="D11">
         <f t="shared" si="3"/>
-        <v>9.9871999999999996</v>
+        <v>9.3032000000000004</v>
       </c>
       <c r="E11">
         <f t="shared" si="4"/>
@@ -821,7 +777,7 @@
       </c>
       <c r="F11">
         <f t="shared" si="5"/>
-        <v>9.9871999999999996</v>
+        <v>9.3032000000000004</v>
       </c>
       <c r="G11">
         <f t="shared" si="6"/>
@@ -829,7 +785,7 @@
       </c>
       <c r="H11">
         <f t="shared" si="7"/>
-        <v>9.9871999999999996</v>
+        <v>9.3032000000000004</v>
       </c>
       <c r="I11">
         <f t="shared" si="8"/>
@@ -837,7 +793,7 @@
       </c>
       <c r="J11">
         <f t="shared" si="9"/>
-        <v>9.9871999999999996</v>
+        <v>9.3032000000000004</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -847,7 +803,7 @@
       </c>
       <c r="B12">
         <f t="shared" si="1"/>
-        <v>10.671199999999999</v>
+        <v>9.9871999999999996</v>
       </c>
       <c r="C12">
         <f t="shared" si="2"/>
@@ -855,7 +811,7 @@
       </c>
       <c r="D12">
         <f t="shared" si="3"/>
-        <v>10.671199999999999</v>
+        <v>9.9871999999999996</v>
       </c>
       <c r="E12">
         <f t="shared" si="4"/>
@@ -863,7 +819,7 @@
       </c>
       <c r="F12">
         <f t="shared" si="5"/>
-        <v>10.671199999999999</v>
+        <v>9.9871999999999996</v>
       </c>
       <c r="G12">
         <f t="shared" si="6"/>
@@ -871,7 +827,7 @@
       </c>
       <c r="H12">
         <f t="shared" si="7"/>
-        <v>10.671199999999999</v>
+        <v>9.9871999999999996</v>
       </c>
       <c r="I12">
         <f t="shared" si="8"/>
@@ -879,7 +835,7 @@
       </c>
       <c r="J12">
         <f t="shared" si="9"/>
-        <v>10.671199999999999</v>
+        <v>9.9871999999999996</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -889,7 +845,7 @@
       </c>
       <c r="B13">
         <f t="shared" si="1"/>
-        <v>11.355199999999998</v>
+        <v>10.671199999999999</v>
       </c>
       <c r="C13">
         <f t="shared" si="2"/>
@@ -897,7 +853,7 @@
       </c>
       <c r="D13">
         <f t="shared" si="3"/>
-        <v>11.355199999999998</v>
+        <v>10.671199999999999</v>
       </c>
       <c r="E13">
         <f t="shared" si="4"/>
@@ -905,7 +861,7 @@
       </c>
       <c r="F13">
         <f t="shared" si="5"/>
-        <v>11.355199999999998</v>
+        <v>10.671199999999999</v>
       </c>
       <c r="G13">
         <f t="shared" si="6"/>
@@ -913,7 +869,7 @@
       </c>
       <c r="H13">
         <f t="shared" si="7"/>
-        <v>11.355199999999998</v>
+        <v>10.671199999999999</v>
       </c>
       <c r="I13">
         <f t="shared" si="8"/>
@@ -921,7 +877,7 @@
       </c>
       <c r="J13">
         <f t="shared" si="9"/>
-        <v>11.355199999999998</v>
+        <v>10.671199999999999</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -931,7 +887,7 @@
       </c>
       <c r="B14">
         <f t="shared" si="1"/>
-        <v>12.039199999999997</v>
+        <v>11.355199999999998</v>
       </c>
       <c r="C14">
         <f t="shared" si="2"/>
@@ -939,7 +895,7 @@
       </c>
       <c r="D14">
         <f t="shared" si="3"/>
-        <v>12.039199999999997</v>
+        <v>11.355199999999998</v>
       </c>
       <c r="E14">
         <f t="shared" si="4"/>
@@ -947,7 +903,7 @@
       </c>
       <c r="F14">
         <f t="shared" si="5"/>
-        <v>12.039199999999997</v>
+        <v>11.355199999999998</v>
       </c>
       <c r="G14">
         <f t="shared" si="6"/>
@@ -955,7 +911,7 @@
       </c>
       <c r="H14">
         <f t="shared" si="7"/>
-        <v>12.039199999999997</v>
+        <v>11.355199999999998</v>
       </c>
       <c r="I14">
         <f t="shared" si="8"/>
@@ -963,7 +919,7 @@
       </c>
       <c r="J14">
         <f t="shared" si="9"/>
-        <v>12.039199999999997</v>
+        <v>11.355199999999998</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -973,7 +929,7 @@
       </c>
       <c r="B15">
         <f t="shared" si="1"/>
-        <v>12.723199999999997</v>
+        <v>12.039199999999997</v>
       </c>
       <c r="C15">
         <f t="shared" si="2"/>
@@ -981,7 +937,7 @@
       </c>
       <c r="D15">
         <f t="shared" si="3"/>
-        <v>12.723199999999997</v>
+        <v>12.039199999999997</v>
       </c>
       <c r="E15">
         <f t="shared" si="4"/>
@@ -989,7 +945,7 @@
       </c>
       <c r="F15">
         <f t="shared" si="5"/>
-        <v>12.723199999999997</v>
+        <v>12.039199999999997</v>
       </c>
       <c r="G15">
         <f t="shared" si="6"/>
@@ -997,7 +953,7 @@
       </c>
       <c r="H15">
         <f t="shared" si="7"/>
-        <v>12.723199999999997</v>
+        <v>12.039199999999997</v>
       </c>
       <c r="I15">
         <f t="shared" si="8"/>
@@ -1005,7 +961,7 @@
       </c>
       <c r="J15">
         <f t="shared" si="9"/>
-        <v>12.723199999999997</v>
+        <v>12.039199999999997</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -1015,7 +971,7 @@
       </c>
       <c r="B16">
         <f t="shared" si="1"/>
-        <v>13.407199999999996</v>
+        <v>12.723199999999997</v>
       </c>
       <c r="C16">
         <f t="shared" si="2"/>
@@ -1023,7 +979,7 @@
       </c>
       <c r="D16">
         <f t="shared" si="3"/>
-        <v>13.407199999999996</v>
+        <v>12.723199999999997</v>
       </c>
       <c r="E16">
         <f t="shared" si="4"/>
@@ -1031,7 +987,7 @@
       </c>
       <c r="F16">
         <f t="shared" si="5"/>
-        <v>13.407199999999996</v>
+        <v>12.723199999999997</v>
       </c>
       <c r="G16">
         <f t="shared" si="6"/>
@@ -1039,7 +995,7 @@
       </c>
       <c r="H16">
         <f t="shared" si="7"/>
-        <v>13.407199999999996</v>
+        <v>12.723199999999997</v>
       </c>
       <c r="I16">
         <f t="shared" si="8"/>
@@ -1047,7 +1003,7 @@
       </c>
       <c r="J16">
         <f t="shared" si="9"/>
-        <v>13.407199999999996</v>
+        <v>12.723199999999997</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -1057,7 +1013,7 @@
       </c>
       <c r="B17">
         <f t="shared" si="1"/>
-        <v>14.091199999999995</v>
+        <v>13.407199999999996</v>
       </c>
       <c r="C17">
         <f t="shared" si="2"/>
@@ -1065,7 +1021,7 @@
       </c>
       <c r="D17">
         <f t="shared" si="3"/>
-        <v>14.091199999999995</v>
+        <v>13.407199999999996</v>
       </c>
       <c r="E17">
         <f t="shared" si="4"/>
@@ -1073,7 +1029,7 @@
       </c>
       <c r="F17">
         <f t="shared" si="5"/>
-        <v>14.091199999999995</v>
+        <v>13.407199999999996</v>
       </c>
       <c r="G17">
         <f t="shared" si="6"/>
@@ -1081,7 +1037,7 @@
       </c>
       <c r="H17">
         <f t="shared" si="7"/>
-        <v>14.091199999999995</v>
+        <v>13.407199999999996</v>
       </c>
       <c r="I17">
         <f t="shared" si="8"/>
@@ -1089,7 +1045,7 @@
       </c>
       <c r="J17">
         <f t="shared" si="9"/>
-        <v>14.091199999999995</v>
+        <v>13.407199999999996</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -1099,7 +1055,7 @@
       </c>
       <c r="B18">
         <f t="shared" si="1"/>
-        <v>14.775199999999995</v>
+        <v>14.091199999999995</v>
       </c>
       <c r="C18">
         <f t="shared" si="2"/>
@@ -1107,7 +1063,7 @@
       </c>
       <c r="D18">
         <f t="shared" si="3"/>
-        <v>14.775199999999995</v>
+        <v>14.091199999999995</v>
       </c>
       <c r="E18">
         <f t="shared" si="4"/>
@@ -1115,7 +1071,7 @@
       </c>
       <c r="F18">
         <f t="shared" si="5"/>
-        <v>14.775199999999995</v>
+        <v>14.091199999999995</v>
       </c>
       <c r="G18">
         <f t="shared" si="6"/>
@@ -1123,7 +1079,7 @@
       </c>
       <c r="H18">
         <f t="shared" si="7"/>
-        <v>14.775199999999995</v>
+        <v>14.091199999999995</v>
       </c>
       <c r="I18">
         <f t="shared" si="8"/>
@@ -1131,7 +1087,7 @@
       </c>
       <c r="J18">
         <f t="shared" si="9"/>
-        <v>14.775199999999995</v>
+        <v>14.091199999999995</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -1141,7 +1097,7 @@
       </c>
       <c r="B19">
         <f t="shared" si="1"/>
-        <v>15.459199999999994</v>
+        <v>14.775199999999995</v>
       </c>
       <c r="C19">
         <f t="shared" si="2"/>
@@ -1149,7 +1105,7 @@
       </c>
       <c r="D19">
         <f t="shared" si="3"/>
-        <v>15.459199999999994</v>
+        <v>14.775199999999995</v>
       </c>
       <c r="E19">
         <f t="shared" si="4"/>
@@ -1157,7 +1113,7 @@
       </c>
       <c r="F19">
         <f t="shared" si="5"/>
-        <v>15.459199999999994</v>
+        <v>14.775199999999995</v>
       </c>
       <c r="G19">
         <f t="shared" si="6"/>
@@ -1165,7 +1121,7 @@
       </c>
       <c r="H19">
         <f t="shared" si="7"/>
-        <v>15.459199999999994</v>
+        <v>14.775199999999995</v>
       </c>
       <c r="I19">
         <f t="shared" si="8"/>
@@ -1173,7 +1129,7 @@
       </c>
       <c r="J19">
         <f t="shared" si="9"/>
-        <v>15.459199999999994</v>
+        <v>14.775199999999995</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
@@ -1183,7 +1139,7 @@
       </c>
       <c r="B20">
         <f t="shared" si="1"/>
-        <v>16.143199999999993</v>
+        <v>15.459199999999994</v>
       </c>
       <c r="C20">
         <f t="shared" si="2"/>
@@ -1191,7 +1147,7 @@
       </c>
       <c r="D20">
         <f t="shared" si="3"/>
-        <v>16.143199999999993</v>
+        <v>15.459199999999994</v>
       </c>
       <c r="E20">
         <f t="shared" si="4"/>
@@ -1199,7 +1155,7 @@
       </c>
       <c r="F20">
         <f t="shared" si="5"/>
-        <v>16.143199999999993</v>
+        <v>15.459199999999994</v>
       </c>
       <c r="G20">
         <f t="shared" si="6"/>
@@ -1207,7 +1163,7 @@
       </c>
       <c r="H20">
         <f t="shared" si="7"/>
-        <v>16.143199999999993</v>
+        <v>15.459199999999994</v>
       </c>
       <c r="I20">
         <f t="shared" si="8"/>
@@ -1215,7 +1171,7 @@
       </c>
       <c r="J20">
         <f t="shared" si="9"/>
-        <v>16.143199999999993</v>
+        <v>15.459199999999994</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
@@ -1225,7 +1181,7 @@
       </c>
       <c r="B21">
         <f t="shared" si="1"/>
-        <v>16.827199999999994</v>
+        <v>16.143199999999993</v>
       </c>
       <c r="C21">
         <f t="shared" si="2"/>
@@ -1233,7 +1189,7 @@
       </c>
       <c r="D21">
         <f t="shared" si="3"/>
-        <v>16.827199999999994</v>
+        <v>16.143199999999993</v>
       </c>
       <c r="E21">
         <f t="shared" si="4"/>
@@ -1241,7 +1197,7 @@
       </c>
       <c r="F21">
         <f t="shared" si="5"/>
-        <v>16.827199999999994</v>
+        <v>16.143199999999993</v>
       </c>
       <c r="G21">
         <f t="shared" si="6"/>
@@ -1249,7 +1205,7 @@
       </c>
       <c r="H21">
         <f t="shared" si="7"/>
-        <v>16.827199999999994</v>
+        <v>16.143199999999993</v>
       </c>
       <c r="I21">
         <f t="shared" si="8"/>
@@ -1257,7 +1213,7 @@
       </c>
       <c r="J21">
         <f t="shared" si="9"/>
-        <v>16.827199999999994</v>
+        <v>16.143199999999993</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
@@ -1267,7 +1223,7 @@
       </c>
       <c r="B22">
         <f t="shared" si="1"/>
-        <v>17.511199999999995</v>
+        <v>16.827199999999994</v>
       </c>
       <c r="C22">
         <f t="shared" si="2"/>
@@ -1275,7 +1231,7 @@
       </c>
       <c r="D22">
         <f t="shared" si="3"/>
-        <v>17.511199999999995</v>
+        <v>16.827199999999994</v>
       </c>
       <c r="E22">
         <f t="shared" si="4"/>
@@ -1283,7 +1239,7 @@
       </c>
       <c r="F22">
         <f t="shared" si="5"/>
-        <v>17.511199999999995</v>
+        <v>16.827199999999994</v>
       </c>
       <c r="G22">
         <f t="shared" si="6"/>
@@ -1291,7 +1247,7 @@
       </c>
       <c r="H22">
         <f t="shared" si="7"/>
-        <v>17.511199999999995</v>
+        <v>16.827199999999994</v>
       </c>
       <c r="I22">
         <f t="shared" si="8"/>
@@ -1299,7 +1255,7 @@
       </c>
       <c r="J22">
         <f t="shared" si="9"/>
-        <v>17.511199999999995</v>
+        <v>16.827199999999994</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
@@ -1309,7 +1265,7 @@
       </c>
       <c r="B23">
         <f t="shared" si="1"/>
-        <v>18.195199999999996</v>
+        <v>17.511199999999995</v>
       </c>
       <c r="C23">
         <f t="shared" si="2"/>
@@ -1317,7 +1273,7 @@
       </c>
       <c r="D23">
         <f t="shared" si="3"/>
-        <v>18.195199999999996</v>
+        <v>17.511199999999995</v>
       </c>
       <c r="E23">
         <f t="shared" si="4"/>
@@ -1325,7 +1281,7 @@
       </c>
       <c r="F23">
         <f t="shared" si="5"/>
-        <v>18.195199999999996</v>
+        <v>17.511199999999995</v>
       </c>
       <c r="G23">
         <f t="shared" si="6"/>
@@ -1333,7 +1289,7 @@
       </c>
       <c r="H23">
         <f t="shared" si="7"/>
-        <v>18.195199999999996</v>
+        <v>17.511199999999995</v>
       </c>
       <c r="I23">
         <f t="shared" si="8"/>
@@ -1341,7 +1297,7 @@
       </c>
       <c r="J23">
         <f t="shared" si="9"/>
-        <v>18.195199999999996</v>
+        <v>17.511199999999995</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
@@ -1351,7 +1307,7 @@
       </c>
       <c r="B24">
         <f t="shared" si="1"/>
-        <v>18.879199999999997</v>
+        <v>18.195199999999996</v>
       </c>
       <c r="C24">
         <f t="shared" si="2"/>
@@ -1359,7 +1315,7 @@
       </c>
       <c r="D24">
         <f t="shared" si="3"/>
-        <v>18.879199999999997</v>
+        <v>18.195199999999996</v>
       </c>
       <c r="E24">
         <f t="shared" si="4"/>
@@ -1367,7 +1323,7 @@
       </c>
       <c r="F24">
         <f t="shared" si="5"/>
-        <v>18.879199999999997</v>
+        <v>18.195199999999996</v>
       </c>
       <c r="G24">
         <f t="shared" si="6"/>
@@ -1375,7 +1331,7 @@
       </c>
       <c r="H24">
         <f t="shared" si="7"/>
-        <v>18.879199999999997</v>
+        <v>18.195199999999996</v>
       </c>
       <c r="I24">
         <f t="shared" si="8"/>
@@ -1383,7 +1339,7 @@
       </c>
       <c r="J24">
         <f t="shared" si="9"/>
-        <v>18.879199999999997</v>
+        <v>18.195199999999996</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
@@ -1393,7 +1349,7 @@
       </c>
       <c r="B25">
         <f t="shared" si="1"/>
-        <v>19.563199999999998</v>
+        <v>18.879199999999997</v>
       </c>
       <c r="C25">
         <f t="shared" si="2"/>
@@ -1401,7 +1357,7 @@
       </c>
       <c r="D25">
         <f t="shared" si="3"/>
-        <v>19.563199999999998</v>
+        <v>18.879199999999997</v>
       </c>
       <c r="E25">
         <f t="shared" si="4"/>
@@ -1409,7 +1365,7 @@
       </c>
       <c r="F25">
         <f t="shared" si="5"/>
-        <v>19.563199999999998</v>
+        <v>18.879199999999997</v>
       </c>
       <c r="G25">
         <f t="shared" si="6"/>
@@ -1417,7 +1373,7 @@
       </c>
       <c r="H25">
         <f t="shared" si="7"/>
-        <v>19.563199999999998</v>
+        <v>18.879199999999997</v>
       </c>
       <c r="I25">
         <f t="shared" si="8"/>
@@ -1425,7 +1381,7 @@
       </c>
       <c r="J25">
         <f t="shared" si="9"/>
-        <v>19.563199999999998</v>
+        <v>18.879199999999997</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
@@ -1435,7 +1391,7 @@
       </c>
       <c r="B26">
         <f t="shared" si="1"/>
-        <v>20.247199999999999</v>
+        <v>19.563199999999998</v>
       </c>
       <c r="C26">
         <f t="shared" si="2"/>
@@ -1443,7 +1399,7 @@
       </c>
       <c r="D26">
         <f t="shared" si="3"/>
-        <v>20.247199999999999</v>
+        <v>19.563199999999998</v>
       </c>
       <c r="E26">
         <f t="shared" si="4"/>
@@ -1451,7 +1407,7 @@
       </c>
       <c r="F26">
         <f t="shared" si="5"/>
-        <v>20.247199999999999</v>
+        <v>19.563199999999998</v>
       </c>
       <c r="G26">
         <f t="shared" si="6"/>
@@ -1459,7 +1415,7 @@
       </c>
       <c r="H26">
         <f t="shared" si="7"/>
-        <v>20.247199999999999</v>
+        <v>19.563199999999998</v>
       </c>
       <c r="I26">
         <f t="shared" si="8"/>
@@ -1467,7 +1423,7 @@
       </c>
       <c r="J26">
         <f t="shared" si="9"/>
-        <v>20.247199999999999</v>
+        <v>19.563199999999998</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
@@ -1477,7 +1433,7 @@
       </c>
       <c r="B27">
         <f t="shared" si="1"/>
-        <v>20.9312</v>
+        <v>20.247199999999999</v>
       </c>
       <c r="C27">
         <f t="shared" si="2"/>
@@ -1485,7 +1441,7 @@
       </c>
       <c r="D27">
         <f t="shared" si="3"/>
-        <v>20.9312</v>
+        <v>20.247199999999999</v>
       </c>
       <c r="E27">
         <f t="shared" si="4"/>
@@ -1493,7 +1449,7 @@
       </c>
       <c r="F27">
         <f t="shared" si="5"/>
-        <v>20.9312</v>
+        <v>20.247199999999999</v>
       </c>
       <c r="G27">
         <f t="shared" si="6"/>
@@ -1501,7 +1457,7 @@
       </c>
       <c r="H27">
         <f t="shared" si="7"/>
-        <v>20.9312</v>
+        <v>20.247199999999999</v>
       </c>
       <c r="I27">
         <f t="shared" si="8"/>
@@ -1509,7 +1465,7 @@
       </c>
       <c r="J27">
         <f t="shared" si="9"/>
-        <v>20.9312</v>
+        <v>20.247199999999999</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
@@ -1519,7 +1475,7 @@
       </c>
       <c r="B28">
         <f t="shared" si="1"/>
-        <v>21.615200000000002</v>
+        <v>20.9312</v>
       </c>
       <c r="C28">
         <f t="shared" si="2"/>
@@ -1527,7 +1483,7 @@
       </c>
       <c r="D28">
         <f t="shared" si="3"/>
-        <v>21.615200000000002</v>
+        <v>20.9312</v>
       </c>
       <c r="E28">
         <f t="shared" si="4"/>
@@ -1535,7 +1491,7 @@
       </c>
       <c r="F28">
         <f t="shared" si="5"/>
-        <v>21.615200000000002</v>
+        <v>20.9312</v>
       </c>
       <c r="G28">
         <f t="shared" si="6"/>
@@ -1543,7 +1499,7 @@
       </c>
       <c r="H28">
         <f t="shared" si="7"/>
-        <v>21.615200000000002</v>
+        <v>20.9312</v>
       </c>
       <c r="I28">
         <f t="shared" si="8"/>
@@ -1551,7 +1507,7 @@
       </c>
       <c r="J28">
         <f t="shared" si="9"/>
-        <v>21.615200000000002</v>
+        <v>20.9312</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
@@ -1561,7 +1517,7 @@
       </c>
       <c r="B29">
         <f t="shared" si="1"/>
-        <v>22.299200000000003</v>
+        <v>21.615200000000002</v>
       </c>
       <c r="C29">
         <f t="shared" si="2"/>
@@ -1569,7 +1525,7 @@
       </c>
       <c r="D29">
         <f t="shared" si="3"/>
-        <v>22.299200000000003</v>
+        <v>21.615200000000002</v>
       </c>
       <c r="E29">
         <f t="shared" si="4"/>
@@ -1577,7 +1533,7 @@
       </c>
       <c r="F29">
         <f t="shared" si="5"/>
-        <v>22.299200000000003</v>
+        <v>21.615200000000002</v>
       </c>
       <c r="G29">
         <f t="shared" si="6"/>
@@ -1585,7 +1541,7 @@
       </c>
       <c r="H29">
         <f t="shared" si="7"/>
-        <v>22.299200000000003</v>
+        <v>21.615200000000002</v>
       </c>
       <c r="I29">
         <f t="shared" si="8"/>
@@ -1593,7 +1549,7 @@
       </c>
       <c r="J29">
         <f t="shared" si="9"/>
-        <v>22.299200000000003</v>
+        <v>21.615200000000002</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
@@ -1603,7 +1559,7 @@
       </c>
       <c r="B30">
         <f t="shared" si="1"/>
-        <v>22.983200000000004</v>
+        <v>22.299200000000003</v>
       </c>
       <c r="C30">
         <f t="shared" si="2"/>
@@ -1611,7 +1567,7 @@
       </c>
       <c r="D30">
         <f t="shared" si="3"/>
-        <v>22.983200000000004</v>
+        <v>22.299200000000003</v>
       </c>
       <c r="E30">
         <f t="shared" si="4"/>
@@ -1619,7 +1575,7 @@
       </c>
       <c r="F30">
         <f t="shared" si="5"/>
-        <v>22.983200000000004</v>
+        <v>22.299200000000003</v>
       </c>
       <c r="G30">
         <f t="shared" si="6"/>
@@ -1627,7 +1583,7 @@
       </c>
       <c r="H30">
         <f t="shared" si="7"/>
-        <v>22.983200000000004</v>
+        <v>22.299200000000003</v>
       </c>
       <c r="I30">
         <f t="shared" si="8"/>
@@ -1635,7 +1591,7 @@
       </c>
       <c r="J30">
         <f t="shared" si="9"/>
-        <v>22.983200000000004</v>
+        <v>22.299200000000003</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
@@ -1645,7 +1601,7 @@
       </c>
       <c r="B31">
         <f t="shared" si="1"/>
-        <v>23.667200000000005</v>
+        <v>22.983200000000004</v>
       </c>
       <c r="C31">
         <f t="shared" si="2"/>
@@ -1653,7 +1609,7 @@
       </c>
       <c r="D31">
         <f t="shared" si="3"/>
-        <v>23.667200000000005</v>
+        <v>22.983200000000004</v>
       </c>
       <c r="E31">
         <f t="shared" si="4"/>
@@ -1661,7 +1617,7 @@
       </c>
       <c r="F31">
         <f t="shared" si="5"/>
-        <v>23.667200000000005</v>
+        <v>22.983200000000004</v>
       </c>
       <c r="G31">
         <f t="shared" si="6"/>
@@ -1669,7 +1625,7 @@
       </c>
       <c r="H31">
         <f t="shared" si="7"/>
-        <v>23.667200000000005</v>
+        <v>22.983200000000004</v>
       </c>
       <c r="I31">
         <f t="shared" si="8"/>
@@ -1677,7 +1633,7 @@
       </c>
       <c r="J31">
         <f t="shared" si="9"/>
-        <v>23.667200000000005</v>
+        <v>22.983200000000004</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
@@ -1687,7 +1643,7 @@
       </c>
       <c r="B32">
         <f t="shared" si="1"/>
-        <v>24.351200000000006</v>
+        <v>23.667200000000005</v>
       </c>
       <c r="C32">
         <f t="shared" si="2"/>
@@ -1695,7 +1651,7 @@
       </c>
       <c r="D32">
         <f t="shared" si="3"/>
-        <v>24.351200000000006</v>
+        <v>23.667200000000005</v>
       </c>
       <c r="E32">
         <f t="shared" si="4"/>
@@ -1703,7 +1659,7 @@
       </c>
       <c r="F32">
         <f t="shared" si="5"/>
-        <v>24.351200000000006</v>
+        <v>23.667200000000005</v>
       </c>
       <c r="G32">
         <f t="shared" si="6"/>
@@ -1711,7 +1667,7 @@
       </c>
       <c r="H32">
         <f t="shared" si="7"/>
-        <v>24.351200000000006</v>
+        <v>23.667200000000005</v>
       </c>
       <c r="I32">
         <f t="shared" si="8"/>
@@ -1719,7 +1675,7 @@
       </c>
       <c r="J32">
         <f t="shared" si="9"/>
-        <v>24.351200000000006</v>
+        <v>23.667200000000005</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
@@ -1729,7 +1685,7 @@
       </c>
       <c r="B33">
         <f t="shared" si="1"/>
-        <v>25.035200000000007</v>
+        <v>24.351200000000006</v>
       </c>
       <c r="C33">
         <f t="shared" si="2"/>
@@ -1737,7 +1693,7 @@
       </c>
       <c r="D33">
         <f t="shared" si="3"/>
-        <v>25.035200000000007</v>
+        <v>24.351200000000006</v>
       </c>
       <c r="E33">
         <f t="shared" si="4"/>
@@ -1745,7 +1701,7 @@
       </c>
       <c r="F33">
         <f t="shared" si="5"/>
-        <v>25.035200000000007</v>
+        <v>24.351200000000006</v>
       </c>
       <c r="G33">
         <f t="shared" si="6"/>
@@ -1753,7 +1709,7 @@
       </c>
       <c r="H33">
         <f t="shared" si="7"/>
-        <v>25.035200000000007</v>
+        <v>24.351200000000006</v>
       </c>
       <c r="I33">
         <f t="shared" si="8"/>
@@ -1761,7 +1717,7 @@
       </c>
       <c r="J33">
         <f t="shared" si="9"/>
-        <v>25.035200000000007</v>
+        <v>24.351200000000006</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
@@ -1771,7 +1727,7 @@
       </c>
       <c r="B34">
         <f t="shared" si="1"/>
-        <v>25.719200000000008</v>
+        <v>25.035200000000007</v>
       </c>
       <c r="C34">
         <f t="shared" si="2"/>
@@ -1779,7 +1735,7 @@
       </c>
       <c r="D34">
         <f t="shared" si="3"/>
-        <v>25.719200000000008</v>
+        <v>25.035200000000007</v>
       </c>
       <c r="E34">
         <f t="shared" si="4"/>
@@ -1787,7 +1743,7 @@
       </c>
       <c r="F34">
         <f t="shared" si="5"/>
-        <v>25.719200000000008</v>
+        <v>25.035200000000007</v>
       </c>
       <c r="G34">
         <f t="shared" si="6"/>
@@ -1795,7 +1751,7 @@
       </c>
       <c r="H34">
         <f t="shared" si="7"/>
-        <v>25.719200000000008</v>
+        <v>25.035200000000007</v>
       </c>
       <c r="I34">
         <f t="shared" si="8"/>
@@ -1803,7 +1759,7 @@
       </c>
       <c r="J34">
         <f t="shared" si="9"/>
-        <v>25.719200000000008</v>
+        <v>25.035200000000007</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
@@ -1813,7 +1769,7 @@
       </c>
       <c r="B35">
         <f t="shared" si="1"/>
-        <v>26.403200000000009</v>
+        <v>25.719200000000008</v>
       </c>
       <c r="C35">
         <f t="shared" si="2"/>
@@ -1821,7 +1777,7 @@
       </c>
       <c r="D35">
         <f t="shared" si="3"/>
-        <v>26.403200000000009</v>
+        <v>25.719200000000008</v>
       </c>
       <c r="E35">
         <f t="shared" si="4"/>
@@ -1829,7 +1785,7 @@
       </c>
       <c r="F35">
         <f t="shared" si="5"/>
-        <v>26.403200000000009</v>
+        <v>25.719200000000008</v>
       </c>
       <c r="G35">
         <f t="shared" si="6"/>
@@ -1837,7 +1793,7 @@
       </c>
       <c r="H35">
         <f t="shared" si="7"/>
-        <v>26.403200000000009</v>
+        <v>25.719200000000008</v>
       </c>
       <c r="I35">
         <f t="shared" si="8"/>
@@ -1845,7 +1801,7 @@
       </c>
       <c r="J35">
         <f t="shared" si="9"/>
-        <v>26.403200000000009</v>
+        <v>25.719200000000008</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
@@ -1855,7 +1811,7 @@
       </c>
       <c r="B36">
         <f t="shared" si="1"/>
-        <v>27.08720000000001</v>
+        <v>26.403200000000009</v>
       </c>
       <c r="C36">
         <f t="shared" si="2"/>
@@ -1863,7 +1819,7 @@
       </c>
       <c r="D36">
         <f t="shared" si="3"/>
-        <v>27.08720000000001</v>
+        <v>26.403200000000009</v>
       </c>
       <c r="E36">
         <f t="shared" si="4"/>
@@ -1871,7 +1827,7 @@
       </c>
       <c r="F36">
         <f t="shared" si="5"/>
-        <v>27.08720000000001</v>
+        <v>26.403200000000009</v>
       </c>
       <c r="G36">
         <f t="shared" si="6"/>
@@ -1879,7 +1835,7 @@
       </c>
       <c r="H36">
         <f t="shared" si="7"/>
-        <v>27.08720000000001</v>
+        <v>26.403200000000009</v>
       </c>
       <c r="I36">
         <f t="shared" si="8"/>
@@ -1887,7 +1843,7 @@
       </c>
       <c r="J36">
         <f t="shared" si="9"/>
-        <v>27.08720000000001</v>
+        <v>26.403200000000009</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
@@ -1897,7 +1853,7 @@
       </c>
       <c r="B37">
         <f t="shared" si="1"/>
-        <v>27.771200000000011</v>
+        <v>27.08720000000001</v>
       </c>
       <c r="C37">
         <f t="shared" si="2"/>
@@ -1905,7 +1861,7 @@
       </c>
       <c r="D37">
         <f t="shared" si="3"/>
-        <v>27.771200000000011</v>
+        <v>27.08720000000001</v>
       </c>
       <c r="E37">
         <f t="shared" si="4"/>
@@ -1913,7 +1869,7 @@
       </c>
       <c r="F37">
         <f t="shared" si="5"/>
-        <v>27.771200000000011</v>
+        <v>27.08720000000001</v>
       </c>
       <c r="G37">
         <f t="shared" si="6"/>
@@ -1921,7 +1877,7 @@
       </c>
       <c r="H37">
         <f t="shared" si="7"/>
-        <v>27.771200000000011</v>
+        <v>27.08720000000001</v>
       </c>
       <c r="I37">
         <f t="shared" si="8"/>
@@ -1929,7 +1885,7 @@
       </c>
       <c r="J37">
         <f t="shared" si="9"/>
-        <v>27.771200000000011</v>
+        <v>27.08720000000001</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
@@ -1939,7 +1895,7 @@
       </c>
       <c r="B38">
         <f t="shared" si="1"/>
-        <v>28.455200000000012</v>
+        <v>27.771200000000011</v>
       </c>
       <c r="C38">
         <f t="shared" si="2"/>
@@ -1947,7 +1903,7 @@
       </c>
       <c r="D38">
         <f t="shared" si="3"/>
-        <v>28.455200000000012</v>
+        <v>27.771200000000011</v>
       </c>
       <c r="E38">
         <f t="shared" si="4"/>
@@ -1955,7 +1911,7 @@
       </c>
       <c r="F38">
         <f t="shared" si="5"/>
-        <v>28.455200000000012</v>
+        <v>27.771200000000011</v>
       </c>
       <c r="G38">
         <f t="shared" si="6"/>
@@ -1963,7 +1919,7 @@
       </c>
       <c r="H38">
         <f t="shared" si="7"/>
-        <v>28.455200000000012</v>
+        <v>27.771200000000011</v>
       </c>
       <c r="I38">
         <f t="shared" si="8"/>
@@ -1971,7 +1927,7 @@
       </c>
       <c r="J38">
         <f t="shared" si="9"/>
-        <v>28.455200000000012</v>
+        <v>27.771200000000011</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
@@ -1981,7 +1937,7 @@
       </c>
       <c r="B39">
         <f t="shared" si="1"/>
-        <v>29.139200000000013</v>
+        <v>28.455200000000012</v>
       </c>
       <c r="C39">
         <f t="shared" si="2"/>
@@ -1989,7 +1945,7 @@
       </c>
       <c r="D39">
         <f t="shared" si="3"/>
-        <v>29.139200000000013</v>
+        <v>28.455200000000012</v>
       </c>
       <c r="E39">
         <f t="shared" si="4"/>
@@ -1997,7 +1953,7 @@
       </c>
       <c r="F39">
         <f t="shared" si="5"/>
-        <v>29.139200000000013</v>
+        <v>28.455200000000012</v>
       </c>
       <c r="G39">
         <f t="shared" si="6"/>
@@ -2005,7 +1961,7 @@
       </c>
       <c r="H39">
         <f t="shared" si="7"/>
-        <v>29.139200000000013</v>
+        <v>28.455200000000012</v>
       </c>
       <c r="I39">
         <f t="shared" si="8"/>
@@ -2013,7 +1969,7 @@
       </c>
       <c r="J39">
         <f t="shared" si="9"/>
-        <v>29.139200000000013</v>
+        <v>28.455200000000012</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
@@ -2023,7 +1979,7 @@
       </c>
       <c r="B40">
         <f t="shared" si="1"/>
-        <v>29.823200000000014</v>
+        <v>29.139200000000013</v>
       </c>
       <c r="C40">
         <f t="shared" si="2"/>
@@ -2031,7 +1987,7 @@
       </c>
       <c r="D40">
         <f t="shared" si="3"/>
-        <v>29.823200000000014</v>
+        <v>29.139200000000013</v>
       </c>
       <c r="E40">
         <f t="shared" si="4"/>
@@ -2039,7 +1995,7 @@
       </c>
       <c r="F40">
         <f t="shared" si="5"/>
-        <v>29.823200000000014</v>
+        <v>29.139200000000013</v>
       </c>
       <c r="G40">
         <f t="shared" si="6"/>
@@ -2047,7 +2003,7 @@
       </c>
       <c r="H40">
         <f t="shared" si="7"/>
-        <v>29.823200000000014</v>
+        <v>29.139200000000013</v>
       </c>
       <c r="I40">
         <f t="shared" si="8"/>
@@ -2055,7 +2011,7 @@
       </c>
       <c r="J40">
         <f t="shared" si="9"/>
-        <v>29.823200000000014</v>
+        <v>29.139200000000013</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
@@ -2065,7 +2021,7 @@
       </c>
       <c r="B41">
         <f t="shared" si="1"/>
-        <v>30.507200000000015</v>
+        <v>29.823200000000014</v>
       </c>
       <c r="C41">
         <f t="shared" si="2"/>
@@ -2073,7 +2029,7 @@
       </c>
       <c r="D41">
         <f t="shared" si="3"/>
-        <v>30.507200000000015</v>
+        <v>29.823200000000014</v>
       </c>
       <c r="E41">
         <f t="shared" si="4"/>
@@ -2081,7 +2037,7 @@
       </c>
       <c r="F41">
         <f t="shared" si="5"/>
-        <v>30.507200000000015</v>
+        <v>29.823200000000014</v>
       </c>
       <c r="G41">
         <f t="shared" si="6"/>
@@ -2089,7 +2045,7 @@
       </c>
       <c r="H41">
         <f t="shared" si="7"/>
-        <v>30.507200000000015</v>
+        <v>29.823200000000014</v>
       </c>
       <c r="I41">
         <f t="shared" si="8"/>
@@ -2097,7 +2053,7 @@
       </c>
       <c r="J41">
         <f t="shared" si="9"/>
-        <v>30.507200000000015</v>
+        <v>29.823200000000014</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
@@ -2107,7 +2063,7 @@
       </c>
       <c r="B42">
         <f t="shared" si="1"/>
-        <v>31.191200000000016</v>
+        <v>30.507200000000015</v>
       </c>
       <c r="C42">
         <f t="shared" si="2"/>
@@ -2115,7 +2071,7 @@
       </c>
       <c r="D42">
         <f t="shared" si="3"/>
-        <v>31.191200000000016</v>
+        <v>30.507200000000015</v>
       </c>
       <c r="E42">
         <f t="shared" si="4"/>
@@ -2123,7 +2079,7 @@
       </c>
       <c r="F42">
         <f t="shared" si="5"/>
-        <v>31.191200000000016</v>
+        <v>30.507200000000015</v>
       </c>
       <c r="G42">
         <f t="shared" si="6"/>
@@ -2131,7 +2087,7 @@
       </c>
       <c r="H42">
         <f t="shared" si="7"/>
-        <v>31.191200000000016</v>
+        <v>30.507200000000015</v>
       </c>
       <c r="I42">
         <f t="shared" si="8"/>
@@ -2139,7 +2095,7 @@
       </c>
       <c r="J42">
         <f t="shared" si="9"/>
-        <v>31.191200000000016</v>
+        <v>30.507200000000015</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
@@ -2149,7 +2105,7 @@
       </c>
       <c r="B43">
         <f t="shared" si="1"/>
-        <v>31.875200000000017</v>
+        <v>31.191200000000016</v>
       </c>
       <c r="C43">
         <f t="shared" si="2"/>
@@ -2157,7 +2113,7 @@
       </c>
       <c r="D43">
         <f t="shared" si="3"/>
-        <v>31.875200000000017</v>
+        <v>31.191200000000016</v>
       </c>
       <c r="E43">
         <f t="shared" si="4"/>
@@ -2165,7 +2121,7 @@
       </c>
       <c r="F43">
         <f t="shared" si="5"/>
-        <v>31.875200000000017</v>
+        <v>31.191200000000016</v>
       </c>
       <c r="G43">
         <f t="shared" si="6"/>
@@ -2173,7 +2129,7 @@
       </c>
       <c r="H43">
         <f t="shared" si="7"/>
-        <v>31.875200000000017</v>
+        <v>31.191200000000016</v>
       </c>
       <c r="I43">
         <f t="shared" si="8"/>
@@ -2181,7 +2137,7 @@
       </c>
       <c r="J43">
         <f t="shared" si="9"/>
-        <v>31.875200000000017</v>
+        <v>31.191200000000016</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
@@ -2191,7 +2147,7 @@
       </c>
       <c r="B44">
         <f t="shared" si="1"/>
-        <v>32.559200000000018</v>
+        <v>31.875200000000017</v>
       </c>
       <c r="C44">
         <f t="shared" si="2"/>
@@ -2199,7 +2155,7 @@
       </c>
       <c r="D44">
         <f t="shared" si="3"/>
-        <v>32.559200000000018</v>
+        <v>31.875200000000017</v>
       </c>
       <c r="E44">
         <f t="shared" si="4"/>
@@ -2207,7 +2163,7 @@
       </c>
       <c r="F44">
         <f t="shared" si="5"/>
-        <v>32.559200000000018</v>
+        <v>31.875200000000017</v>
       </c>
       <c r="G44">
         <f t="shared" si="6"/>
@@ -2215,7 +2171,7 @@
       </c>
       <c r="H44">
         <f t="shared" si="7"/>
-        <v>32.559200000000018</v>
+        <v>31.875200000000017</v>
       </c>
       <c r="I44">
         <f t="shared" si="8"/>
@@ -2223,7 +2179,7 @@
       </c>
       <c r="J44">
         <f t="shared" si="9"/>
-        <v>32.559200000000018</v>
+        <v>31.875200000000017</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
@@ -2233,7 +2189,7 @@
       </c>
       <c r="B45">
         <f t="shared" si="1"/>
-        <v>33.243200000000016</v>
+        <v>32.559200000000018</v>
       </c>
       <c r="C45">
         <f t="shared" si="2"/>
@@ -2241,7 +2197,7 @@
       </c>
       <c r="D45">
         <f t="shared" si="3"/>
-        <v>33.243200000000016</v>
+        <v>32.559200000000018</v>
       </c>
       <c r="E45">
         <f t="shared" si="4"/>
@@ -2249,7 +2205,7 @@
       </c>
       <c r="F45">
         <f t="shared" si="5"/>
-        <v>33.243200000000016</v>
+        <v>32.559200000000018</v>
       </c>
       <c r="G45">
         <f t="shared" si="6"/>
@@ -2257,7 +2213,7 @@
       </c>
       <c r="H45">
         <f t="shared" si="7"/>
-        <v>33.243200000000016</v>
+        <v>32.559200000000018</v>
       </c>
       <c r="I45">
         <f t="shared" si="8"/>
@@ -2265,7 +2221,7 @@
       </c>
       <c r="J45">
         <f t="shared" si="9"/>
-        <v>33.243200000000016</v>
+        <v>32.559200000000018</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
@@ -2275,7 +2231,7 @@
       </c>
       <c r="B46">
         <f t="shared" si="1"/>
-        <v>33.927200000000013</v>
+        <v>33.243200000000016</v>
       </c>
       <c r="C46">
         <f t="shared" si="2"/>
@@ -2283,7 +2239,7 @@
       </c>
       <c r="D46">
         <f t="shared" si="3"/>
-        <v>33.927200000000013</v>
+        <v>33.243200000000016</v>
       </c>
       <c r="E46">
         <f t="shared" si="4"/>
@@ -2291,7 +2247,7 @@
       </c>
       <c r="F46">
         <f t="shared" si="5"/>
-        <v>33.927200000000013</v>
+        <v>33.243200000000016</v>
       </c>
       <c r="G46">
         <f t="shared" si="6"/>
@@ -2299,7 +2255,7 @@
       </c>
       <c r="H46">
         <f t="shared" si="7"/>
-        <v>33.927200000000013</v>
+        <v>33.243200000000016</v>
       </c>
       <c r="I46">
         <f t="shared" si="8"/>
@@ -2307,7 +2263,7 @@
       </c>
       <c r="J46">
         <f t="shared" si="9"/>
-        <v>33.927200000000013</v>
+        <v>33.243200000000016</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
@@ -2317,7 +2273,7 @@
       </c>
       <c r="B47">
         <f t="shared" si="1"/>
-        <v>34.611200000000011</v>
+        <v>33.927200000000013</v>
       </c>
       <c r="C47">
         <f t="shared" si="2"/>
@@ -2325,7 +2281,7 @@
       </c>
       <c r="D47">
         <f t="shared" si="3"/>
-        <v>34.611200000000011</v>
+        <v>33.927200000000013</v>
       </c>
       <c r="E47">
         <f t="shared" si="4"/>
@@ -2333,7 +2289,7 @@
       </c>
       <c r="F47">
         <f t="shared" si="5"/>
-        <v>34.611200000000011</v>
+        <v>33.927200000000013</v>
       </c>
       <c r="G47">
         <f t="shared" si="6"/>
@@ -2341,7 +2297,7 @@
       </c>
       <c r="H47">
         <f t="shared" si="7"/>
-        <v>34.611200000000011</v>
+        <v>33.927200000000013</v>
       </c>
       <c r="I47">
         <f t="shared" si="8"/>
@@ -2349,7 +2305,7 @@
       </c>
       <c r="J47">
         <f t="shared" si="9"/>
-        <v>34.611200000000011</v>
+        <v>33.927200000000013</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
@@ -2359,7 +2315,7 @@
       </c>
       <c r="B48">
         <f t="shared" si="1"/>
-        <v>35.295200000000008</v>
+        <v>34.611200000000011</v>
       </c>
       <c r="C48">
         <f t="shared" si="2"/>
@@ -2367,7 +2323,7 @@
       </c>
       <c r="D48">
         <f t="shared" si="3"/>
-        <v>35.295200000000008</v>
+        <v>34.611200000000011</v>
       </c>
       <c r="E48">
         <f t="shared" si="4"/>
@@ -2375,7 +2331,7 @@
       </c>
       <c r="F48">
         <f t="shared" si="5"/>
-        <v>35.295200000000008</v>
+        <v>34.611200000000011</v>
       </c>
       <c r="G48">
         <f t="shared" si="6"/>
@@ -2383,7 +2339,7 @@
       </c>
       <c r="H48">
         <f t="shared" si="7"/>
-        <v>35.295200000000008</v>
+        <v>34.611200000000011</v>
       </c>
       <c r="I48">
         <f t="shared" si="8"/>
@@ -2391,7 +2347,7 @@
       </c>
       <c r="J48">
         <f t="shared" si="9"/>
-        <v>35.295200000000008</v>
+        <v>34.611200000000011</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
@@ -2401,7 +2357,7 @@
       </c>
       <c r="B49">
         <f t="shared" si="1"/>
-        <v>35.979200000000006</v>
+        <v>35.295200000000008</v>
       </c>
       <c r="C49">
         <f t="shared" si="2"/>
@@ -2409,7 +2365,7 @@
       </c>
       <c r="D49">
         <f t="shared" si="3"/>
-        <v>35.979200000000006</v>
+        <v>35.295200000000008</v>
       </c>
       <c r="E49">
         <f t="shared" si="4"/>
@@ -2417,7 +2373,7 @@
       </c>
       <c r="F49">
         <f t="shared" si="5"/>
-        <v>35.979200000000006</v>
+        <v>35.295200000000008</v>
       </c>
       <c r="G49">
         <f t="shared" si="6"/>
@@ -2425,7 +2381,7 @@
       </c>
       <c r="H49">
         <f t="shared" si="7"/>
-        <v>35.979200000000006</v>
+        <v>35.295200000000008</v>
       </c>
       <c r="I49">
         <f t="shared" si="8"/>
@@ -2433,7 +2389,7 @@
       </c>
       <c r="J49">
         <f t="shared" si="9"/>
-        <v>35.979200000000006</v>
+        <v>35.295200000000008</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
@@ -2443,7 +2399,7 @@
       </c>
       <c r="B50">
         <f t="shared" si="1"/>
-        <v>36.663200000000003</v>
+        <v>35.979200000000006</v>
       </c>
       <c r="C50">
         <f t="shared" si="2"/>
@@ -2451,7 +2407,7 @@
       </c>
       <c r="D50">
         <f t="shared" si="3"/>
-        <v>36.663200000000003</v>
+        <v>35.979200000000006</v>
       </c>
       <c r="E50">
         <f t="shared" si="4"/>
@@ -2459,7 +2415,7 @@
       </c>
       <c r="F50">
         <f t="shared" si="5"/>
-        <v>36.663200000000003</v>
+        <v>35.979200000000006</v>
       </c>
       <c r="G50">
         <f t="shared" si="6"/>
@@ -2467,7 +2423,7 @@
       </c>
       <c r="H50">
         <f t="shared" si="7"/>
-        <v>36.663200000000003</v>
+        <v>35.979200000000006</v>
       </c>
       <c r="I50">
         <f t="shared" si="8"/>
@@ -2475,7 +2431,7 @@
       </c>
       <c r="J50">
         <f t="shared" si="9"/>
-        <v>36.663200000000003</v>
+        <v>35.979200000000006</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
@@ -2485,7 +2441,7 @@
       </c>
       <c r="B51">
         <f t="shared" si="1"/>
-        <v>37.347200000000001</v>
+        <v>36.663200000000003</v>
       </c>
       <c r="C51">
         <f t="shared" si="2"/>
@@ -2493,7 +2449,7 @@
       </c>
       <c r="D51">
         <f t="shared" si="3"/>
-        <v>37.347200000000001</v>
+        <v>36.663200000000003</v>
       </c>
       <c r="E51">
         <f t="shared" si="4"/>
@@ -2501,7 +2457,7 @@
       </c>
       <c r="F51">
         <f t="shared" si="5"/>
-        <v>37.347200000000001</v>
+        <v>36.663200000000003</v>
       </c>
       <c r="G51">
         <f t="shared" si="6"/>
@@ -2509,7 +2465,7 @@
       </c>
       <c r="H51">
         <f t="shared" si="7"/>
-        <v>37.347200000000001</v>
+        <v>36.663200000000003</v>
       </c>
       <c r="I51">
         <f t="shared" si="8"/>
@@ -2517,7 +2473,7 @@
       </c>
       <c r="J51">
         <f t="shared" si="9"/>
-        <v>37.347200000000001</v>
+        <v>36.663200000000003</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
@@ -2527,7 +2483,7 @@
       </c>
       <c r="B52">
         <f t="shared" si="1"/>
-        <v>38.031199999999998</v>
+        <v>37.347200000000001</v>
       </c>
       <c r="C52">
         <f t="shared" si="2"/>
@@ -2535,7 +2491,7 @@
       </c>
       <c r="D52">
         <f t="shared" si="3"/>
-        <v>38.031199999999998</v>
+        <v>37.347200000000001</v>
       </c>
       <c r="E52">
         <f t="shared" si="4"/>
@@ -2543,7 +2499,7 @@
       </c>
       <c r="F52">
         <f t="shared" si="5"/>
-        <v>38.031199999999998</v>
+        <v>37.347200000000001</v>
       </c>
       <c r="G52">
         <f t="shared" si="6"/>
@@ -2551,7 +2507,7 @@
       </c>
       <c r="H52">
         <f t="shared" si="7"/>
-        <v>38.031199999999998</v>
+        <v>37.347200000000001</v>
       </c>
       <c r="I52">
         <f t="shared" si="8"/>
@@ -2559,7 +2515,7 @@
       </c>
       <c r="J52">
         <f t="shared" si="9"/>
-        <v>38.031199999999998</v>
+        <v>37.347200000000001</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
@@ -2569,7 +2525,7 @@
       </c>
       <c r="B53">
         <f t="shared" si="1"/>
-        <v>38.715199999999996</v>
+        <v>38.031199999999998</v>
       </c>
       <c r="C53">
         <f t="shared" si="2"/>
@@ -2577,7 +2533,7 @@
       </c>
       <c r="D53">
         <f t="shared" si="3"/>
-        <v>38.715199999999996</v>
+        <v>38.031199999999998</v>
       </c>
       <c r="E53">
         <f t="shared" si="4"/>
@@ -2585,7 +2541,7 @@
       </c>
       <c r="F53">
         <f t="shared" si="5"/>
-        <v>38.715199999999996</v>
+        <v>38.031199999999998</v>
       </c>
       <c r="G53">
         <f t="shared" si="6"/>
@@ -2593,7 +2549,7 @@
       </c>
       <c r="H53">
         <f t="shared" si="7"/>
-        <v>38.715199999999996</v>
+        <v>38.031199999999998</v>
       </c>
       <c r="I53">
         <f t="shared" si="8"/>
@@ -2601,7 +2557,7 @@
       </c>
       <c r="J53">
         <f t="shared" si="9"/>
-        <v>38.715199999999996</v>
+        <v>38.031199999999998</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
@@ -2611,7 +2567,7 @@
       </c>
       <c r="B54">
         <f t="shared" si="1"/>
-        <v>39.399199999999993</v>
+        <v>38.715199999999996</v>
       </c>
       <c r="C54">
         <f t="shared" si="2"/>
@@ -2619,7 +2575,7 @@
       </c>
       <c r="D54">
         <f t="shared" si="3"/>
-        <v>39.399199999999993</v>
+        <v>38.715199999999996</v>
       </c>
       <c r="E54">
         <f t="shared" si="4"/>
@@ -2627,7 +2583,7 @@
       </c>
       <c r="F54">
         <f t="shared" si="5"/>
-        <v>39.399199999999993</v>
+        <v>38.715199999999996</v>
       </c>
       <c r="G54">
         <f t="shared" si="6"/>
@@ -2635,7 +2591,7 @@
       </c>
       <c r="H54">
         <f t="shared" si="7"/>
-        <v>39.399199999999993</v>
+        <v>38.715199999999996</v>
       </c>
       <c r="I54">
         <f t="shared" si="8"/>
@@ -2643,7 +2599,7 @@
       </c>
       <c r="J54">
         <f t="shared" si="9"/>
-        <v>39.399199999999993</v>
+        <v>38.715199999999996</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
@@ -2653,37 +2609,79 @@
       </c>
       <c r="B55">
         <f t="shared" si="1"/>
+        <v>39.399199999999993</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="2"/>
+        <v>20.397200000000002</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="3"/>
+        <v>39.399199999999993</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="4"/>
+        <v>21.072800000000001</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="5"/>
+        <v>39.399199999999993</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="6"/>
+        <v>21.1236</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="7"/>
+        <v>39.399199999999993</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="8"/>
+        <v>21.250599999999999</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="9"/>
+        <v>39.399199999999993</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <f t="shared" si="0"/>
+        <v>20.372199999999999</v>
+      </c>
+      <c r="B56">
+        <f t="shared" si="1"/>
         <v>40.083199999999991</v>
       </c>
-      <c r="C55">
-        <f t="shared" si="2"/>
-        <v>20.397200000000002</v>
-      </c>
-      <c r="D55">
+      <c r="C56">
+        <f t="shared" si="2"/>
+        <v>20.397200000000002</v>
+      </c>
+      <c r="D56">
         <f t="shared" si="3"/>
         <v>40.083199999999991</v>
       </c>
-      <c r="E55">
-        <f t="shared" si="4"/>
-        <v>21.072800000000001</v>
-      </c>
-      <c r="F55">
+      <c r="E56">
+        <f t="shared" si="4"/>
+        <v>21.072800000000001</v>
+      </c>
+      <c r="F56">
         <f t="shared" si="5"/>
         <v>40.083199999999991</v>
       </c>
-      <c r="G55">
-        <f t="shared" si="6"/>
-        <v>21.1236</v>
-      </c>
-      <c r="H55">
+      <c r="G56">
+        <f t="shared" si="6"/>
+        <v>21.1236</v>
+      </c>
+      <c r="H56">
         <f t="shared" si="7"/>
         <v>40.083199999999991</v>
       </c>
-      <c r="I55">
-        <f t="shared" si="8"/>
-        <v>21.250599999999999</v>
-      </c>
-      <c r="J55">
+      <c r="I56">
+        <f t="shared" si="8"/>
+        <v>21.250599999999999</v>
+      </c>
+      <c r="J56">
         <f t="shared" si="9"/>
         <v>40.083199999999991</v>
       </c>
